--- a/заказы/филиалы и опт/2024/11,24/25,11,24 Ост СЫР филиалы/дв 25,11,24 млрсч ост сыр от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/11,24/25,11,24 Ост СЫР филиалы/дв 25,11,24 млрсч ост сыр от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,11,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\11,24\25,11,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D5DAFE-415B-48EA-A788-65918BB1FAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6306F2F6-C64E-43BB-AC5C-F199C7066F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AB$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -798,7 +798,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>2216.0420000000004</v>
+        <v>6216.0420000000004</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
@@ -4677,12 +4677,14 @@
         <f t="shared" ref="O41:O42" si="9">E41/5</f>
         <v>203</v>
       </c>
-      <c r="P41" s="5"/>
+      <c r="P41" s="5">
+        <v>4000</v>
+      </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1">
         <f t="shared" ref="S41:S42" si="10">(F41+N41+P41)/O41</f>
-        <v>5.2216748768472909</v>
+        <v>24.926108374384235</v>
       </c>
       <c r="T41" s="1">
         <f t="shared" ref="T41:T42" si="11">(F41+N41)/O41</f>
